--- a/backend/output_timetables/sem7_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem7_CSE_timetable_baskets.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Basket_Courses" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Common_Slots_Info" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CS498</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Basket: ELECTIVE_B2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Basket: ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Basket: ELECTIVE_B5</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B7</t>
+          <t>CS498</t>
         </is>
       </c>
     </row>
@@ -575,17 +579,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B4</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B6</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B7</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -607,17 +611,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B7 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -629,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B2</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,12 +643,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B6</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -661,17 +665,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B2 (Tutorial)</t>
+          <t>CS498 (Tutorial)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B4 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B6 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -739,27 +743,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Basket: ELECTIVE_B2</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B4</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B7</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -845,17 +849,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B4</t>
+          <t>CS498</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B6</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B7</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -877,17 +881,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B7 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -899,7 +903,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B2</t>
+          <t>CS498</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -909,12 +913,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B6</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -931,17 +935,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B2 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B4 (Tutorial)</t>
+          <t>CS498 (Tutorial)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B6 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -952,6 +956,4394 @@
       <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Applicable Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DS456, EC456, CS367, DS401, EC462, EC465, DE451, PH454, DS456, EC456, DS401, EC462, EC465, DE351, PH454, DS456, EC456, CS367, DS401, EC462, EC465, DE451, PH454</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 7</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS457, DS458, CS468, CS473, CS474, CS470, DS102, MA452, EC463, CS457, DS458, CS468, CS473, CS474, CS470, DS102, MA452, EC463, CS457, DS458, CS468, CS473, CS474, CS470, DS102, MA452, EC463</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Semester 7</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Reinforcement learning</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS367</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Image processing and computer vision</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>health care data analytics</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hands on CMOS analog and RF circuit design</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Usability testing</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DevOPS and its application</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Agentic AI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Information retrieval</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cloud SRE and security</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CS474</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Software defined network</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Finance and accounting</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Operation research</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Energy efficient neural networks</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS498</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0-0-0-8-2</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Reinforcement learning</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>health care data analytics</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Hands on CMOS Analog and RF Circuit design</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>User Interactions and Experience Design</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Quantum AI+ Generative Models on Quantum Platform</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Devlops and its Applications</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Agentic AI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Information Retrieval</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Cloud SRE and Security</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CS474</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Software Defined Network</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>AI for Cybersecurity</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Finance and Accounting</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Operation Research</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Energy Efficient Neural Network</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Reinforcement learning</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CS367</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Image processing and computer vision</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>3</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>health care data analytics</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Hands on CMOS analog and RF circuit design</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Usability testing</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DevOPS and its application</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Agentic AI</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>3</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Information retrieval</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>3</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Cloud SRE and security</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CS474</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Software defined network</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Finance and accounting</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>3</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Operation research</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>3</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Energy efficient neural networks</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slots</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>23</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS367</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>23</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>23</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>23</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>23</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>23</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>23</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>23</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>23</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>23</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>23</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>23</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>23</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>23</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>23</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>23</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CS367</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>23</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>23</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>23</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>23</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>23</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>23</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>27</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>27</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>27</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>27</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CS474</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>27</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>27</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>27</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>27</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>27</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>27</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>27</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>27</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>27</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CS474</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>27</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>27</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>27</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>27</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>27</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>27</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>27</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>27</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>27</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CS474</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>27</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>27</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>27</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>27</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>27</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 1 Day</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 1 Time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 2 Day</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 2 Time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Day</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Time</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Courses</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Sections</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Consistency</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semester 7</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>DS456, EC456, CS367, DS401, EC462, EC465, DE451, PH454, DS456, EC456, DS401, EC462, EC465, DE351, PH454, DS456, EC456, CS367, DS401, EC462, EC465, DE451, PH454</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Semester 7</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CS457, DS458, CS468, CS473, CS474, CS470, DS102, MA452, EC463, CS457, DS458, CS468, CS473, CS474, CS470, DS102, MA452, EC463, CS457, DS458, CS468, CS473, CS474, CS470, DS102, MA452, EC463</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem7_CSE_timetable_baskets.xlsx
@@ -13,6 +13,8 @@
     <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Basket_Courses" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Common_Slots_Info" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Semester_Rules" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Classroom_Utilization" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,17 +475,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B6 [C405]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS498</t>
+          <t>ELECTIVE_B7 [C405]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,7 +495,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS498</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -505,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS498 [C405]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -579,12 +581,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6 [C405]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7 [C405]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,22 +608,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B6 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 (Tutorial)</t>
+          <t>CS498 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -648,7 +650,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS498 [C405]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -665,7 +667,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS498 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -743,17 +745,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B6 [C405]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>ELECTIVE_B7 [C405]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -775,17 +777,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS498 [C405]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS498 [C405]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -849,12 +851,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS498</t>
+          <t>ELECTIVE_B6 [C405]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7 [C405]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -876,22 +878,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B6 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -903,7 +905,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS498</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -940,7 +942,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS498 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -955,7 +957,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS498 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -1048,12 +1050,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Wed 09:00-10:30</t>
+          <t>Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1100,17 +1102,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30</t>
+          <t>Tue 09:00-10:30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Wed 09:00-10:30</t>
+          <t>Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3375,12 +3377,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -3410,12 +3412,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -3445,12 +3447,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -3480,12 +3482,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -3515,12 +3517,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -3550,12 +3552,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -3585,12 +3587,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -3620,12 +3622,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -3655,12 +3657,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -3690,12 +3692,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -3725,12 +3727,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -3760,12 +3762,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -3795,12 +3797,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -3830,12 +3832,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -3865,12 +3867,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -3900,12 +3902,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -3935,12 +3937,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -3970,12 +3972,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -4005,12 +4007,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -4040,12 +4042,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -4075,12 +4077,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -4110,12 +4112,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -4145,12 +4147,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -4180,12 +4182,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -4215,12 +4217,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -4250,12 +4252,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -4285,12 +4287,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -4320,12 +4322,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -4355,12 +4357,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -4390,12 +4392,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -4425,12 +4427,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -4460,12 +4462,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -4495,12 +4497,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -4530,12 +4532,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -4565,12 +4567,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -4600,12 +4602,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -4635,12 +4637,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -4670,12 +4672,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -4705,12 +4707,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -4740,12 +4742,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -4775,12 +4777,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -4810,12 +4812,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -4845,12 +4847,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -4880,12 +4882,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -4915,12 +4917,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -4950,12 +4952,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -4985,12 +4987,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -5020,12 +5022,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -5055,12 +5057,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -5090,12 +5092,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -5231,12 +5233,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -5288,7 +5290,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5298,19 +5300,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Wed</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>14:30-15:30</t>
@@ -5344,6 +5346,1336 @@
       <c r="N3" t="inlineStr">
         <is>
           <t>FIXED COMMON TIMETABLE SLOTS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rule</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Exclusion</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Reason</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled Baskets</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semester 7</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Schedule all elective baskets</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No specific restrictions for this semester</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6, ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✅ Applied</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Recreation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>24</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>60</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem7_CSE_timetable_baskets.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Classroom_Utilization" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Classroom_Allocation" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,11 +437,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -467,19 +464,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 [C403]</t>
+          <t>ELECTIVE_B6 [C405]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 [C205]</t>
+          <t>ELECTIVE_B7 [C204]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -499,7 +496,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>10:30-12:00</t>
         </is>
@@ -531,7 +528,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>12:00-13:00</t>
         </is>
@@ -563,7 +560,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>13:00-14:30</t>
         </is>
@@ -580,12 +577,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 [C403]</t>
+          <t>ELECTIVE_B6 [C405]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 [C205]</t>
+          <t>ELECTIVE_B7 [C204]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -595,7 +592,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>14:30-15:30</t>
         </is>
@@ -607,12 +604,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 (Tutorial) [C302]</t>
+          <t>ELECTIVE_B6 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 (Tutorial) [C302]</t>
+          <t>ELECTIVE_B7 (Tutorial) [C402]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -627,7 +624,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>15:30-17:00</t>
         </is>
@@ -659,7 +656,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>17:00-18:00</t>
         </is>
@@ -710,258 +707,2236 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6 [C002]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7 [C203]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6 [C002]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7 [C203]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7 (Tutorial) [C303]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Time Slot</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Weekly Hours (Timetable)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Daily Avg Hours (Timetable)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 [C302]</t>
+          <t>Recreation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 [C303]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6 [C302]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7 [C303]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 (Tutorial) [C405]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7 (Tutorial) [C104]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>C103</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>library</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>10</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem7_CSE_timetable_baskets.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 [C405]</t>
+          <t>ELECTIVE_B6 [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 [C204]</t>
+          <t>ELECTIVE_B7 [C403]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -577,12 +577,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 [C405]</t>
+          <t>ELECTIVE_B6 [C102]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 [C204]</t>
+          <t>ELECTIVE_B7 [C403]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -604,12 +604,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 (Tutorial) [C104]</t>
+          <t>ELECTIVE_B6 (Tutorial) [C303]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 (Tutorial) [C402]</t>
+          <t>ELECTIVE_B7 (Tutorial) [C205]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -741,12 +741,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 [C002]</t>
+          <t>ELECTIVE_B6 [C405]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 [C203]</t>
+          <t>ELECTIVE_B7 [C004]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 [C002]</t>
+          <t>ELECTIVE_B6 [C405]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 [C203]</t>
+          <t>ELECTIVE_B7 [C004]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -874,12 +874,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 (Tutorial) [C405]</t>
+          <t>ELECTIVE_B6 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 (Tutorial) [C303]</t>
+          <t>ELECTIVE_B7 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1201,16 +1201,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1473,16 +1473,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1983,16 +1983,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -2641,17 +2641,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -2696,17 +2696,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2806,17 +2806,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2916,17 +2916,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">

--- a/backend/output_timetables/sem7_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem7_CSE_timetable_baskets.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 [C102]</t>
+          <t>ELECTIVE_B6 [C205]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 [C403]</t>
+          <t>ELECTIVE_B7 [C402]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -577,12 +577,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 [C102]</t>
+          <t>ELECTIVE_B6 [C205]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 [C403]</t>
+          <t>ELECTIVE_B7 [C402]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -604,12 +604,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 (Tutorial) [C303]</t>
+          <t>ELECTIVE_B6 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B7 (Tutorial) [C302]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -741,12 +741,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 [C405]</t>
+          <t>ELECTIVE_B6 [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 [C004]</t>
+          <t>ELECTIVE_B7 [C002]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 [C405]</t>
+          <t>ELECTIVE_B6 [C101]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 [C004]</t>
+          <t>ELECTIVE_B7 [C002]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -874,12 +874,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 (Tutorial) [C305]</t>
+          <t>ELECTIVE_B6 (Tutorial) [C201]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 (Tutorial) [C305]</t>
+          <t>ELECTIVE_B7 (Tutorial) [C204]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1201,16 +1201,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1473,16 +1473,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1983,16 +1983,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -2696,17 +2696,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2916,17 +2916,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">

--- a/backend/output_timetables/sem7_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem7_CSE_timetable_baskets.xlsx
@@ -479,12 +479,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 [C101]</t>
+          <t>ELECTIVE_B6 [C304]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 [C102]</t>
+          <t>ELECTIVE_B7 [C304]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -585,12 +585,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 [C101]</t>
+          <t>ELECTIVE_B6 [C304]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 [C102]</t>
+          <t>ELECTIVE_B7 [C304]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -612,12 +612,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 (Tutorial) [C104]</t>
+          <t>ELECTIVE_B6 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 (Tutorial) [C401]</t>
+          <t>ELECTIVE_B7 (Tutorial) [C003]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2643,16 +2643,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -2677,16 +2677,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2711,16 +2711,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -2745,16 +2745,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2813,16 +2813,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -2983,16 +2983,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3017,16 +3017,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -3051,16 +3051,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -3289,16 +3289,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -3323,16 +3323,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -3493,16 +3493,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -3561,16 +3561,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -3629,16 +3629,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -4075,17 +4075,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -4185,17 +4185,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -4295,17 +4295,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -4350,17 +4350,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -4405,7 +4405,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -4460,7 +4460,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -4538,12 +4538,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 [C303]</t>
+          <t>ELECTIVE_B6 [C004]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 [C202]</t>
+          <t>ELECTIVE_B7 [C403]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4644,12 +4644,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 [C303]</t>
+          <t>ELECTIVE_B6 [C004]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 [C202]</t>
+          <t>ELECTIVE_B7 [C403]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -4671,12 +4671,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 (Tutorial) [C204]</t>
+          <t>ELECTIVE_B6 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 (Tutorial) [C201]</t>
+          <t>ELECTIVE_B7 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C101, C104</t>
+          <t>C304, C405</t>
         </is>
       </c>
     </row>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C102, C401</t>
+          <t>C304, C003</t>
         </is>
       </c>
     </row>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>⚠️ 2 issues</t>
+          <t>[WARN] 2 issues</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C303, C204</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C202, C201</t>
+          <t>C403, C203</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>⚠️ 2 issues</t>
+          <t>[WARN] 2 issues</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -5179,7 +5179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5237,17 +5237,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5256,7 +5256,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -5268,29 +5268,29 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7 (Tutorial)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5299,31 +5299,31 @@
         </is>
       </c>
       <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6 (Tutorial), ELECTIVE_B6</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 (Tutorial)</t>
+          <t>ELECTIVE_B7 (Tutorial)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -5366,7 +5366,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5385,31 +5385,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 (Tutorial)</t>
+          <t>ELECTIVE_B7, ELECTIVE_B6</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5419,7 +5419,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5452,7 +5452,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -5487,92 +5487,6 @@
         </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>C401</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
@@ -5687,22 +5601,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -5744,22 +5658,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -5842,7 +5756,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-03 12:04</t>
+          <t>2025-12-12 16:59</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5926,12 +5840,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8/35</t>
+          <t>6/35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 22.9%</t>
+          <t>Utilization: 17.1%</t>
         </is>
       </c>
     </row>
@@ -5970,7 +5884,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>⚠️ NEEDS REVIEW</t>
+          <t>[WARN] NEEDS REVIEW</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -6083,17 +5997,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6140,17 +6054,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/backend/output_timetables/sem7_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem7_CSE_timetable_baskets.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Classroom_Utilization" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Classroom_Allocation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Basket_Course_Allocations" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,6 +440,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -464,9 +472,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -496,169 +504,169 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -707,6 +715,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -734,9 +747,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -766,169 +779,169 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -968,7 +981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,11 +1059,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DS456, EC456, CS367, DS401, EC462, EC465, DE451, PH454, DS456, EC456, DS401, EC462, EC465, DE351, PH454, DS456, EC456, CS367, DS401, EC462, EC465, DE451, PH454</t>
+          <t>DS456, EC456, DS401, DS456, EC456, DS401, DS456, EC456, DS401</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1091,11 +1104,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS457, DS458, CS468, CS473, CS474, CS470, DS102, MA452, EC463, CS457, DS458, CS468, CS473, CS474, CS470, DS102, MA452, EC463, CS457, DS458, CS468, CS473, CS474, CS470, DS102, MA452, EC463</t>
+          <t>CS457, DS458, CS468, CS473, CS457, DS458, CS468, CS473, CS457, DS458, CS468, CS473</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1108,6 +1121,96 @@
         </is>
       </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t>Semester 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>EC462, EC465, ASD352, PH454, EC462, EC465, ASD352, PH454, EC462, EC465, DE451, PH454</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Semester 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CS470, DS102, MA452, EC463, CS470, DS102, MA452, EC463, CS470, DS102, MA452, EC463</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>Semester 7</t>
         </is>
@@ -1124,7 +1227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1264,12 +1367,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CS367</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Image processing and computer vision</t>
+          <t>health care data analytics</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1305,12 +1408,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>health care data analytics</t>
+          <t>Generative AI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1346,12 +1449,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Generative AI</t>
+          <t>Hands on CMOS analog and RF circuit design</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1387,12 +1490,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hands on CMOS analog and RF circuit design</t>
+          <t>User Interactions and Experience Design</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1428,12 +1531,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Usability testing</t>
+          <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1469,12 +1572,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
+          <t>DevOPS and its application</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1510,12 +1613,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DevOPS and its application</t>
+          <t>Agentic AI</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1551,12 +1654,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Agentic AI</t>
+          <t>Information retrieval</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1592,12 +1695,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Information retrieval</t>
+          <t>Cloud SRE and security</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1633,12 +1736,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cloud SRE and security</t>
+          <t>AI for cybersecurity</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1674,12 +1777,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CS474</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Software defined network</t>
+          <t>Finance and accounting</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1715,12 +1818,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AI for cybersecurity</t>
+          <t>Operation research</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1756,12 +1859,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Finance and accounting</t>
+          <t>Energy efficient neural networks</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1797,37 +1900,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>CS498</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Operation research</t>
+          <t>Mini Project</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: CSE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>0-0-0-8-2</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1838,12 +1941,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Energy efficient neural networks</t>
+          <t>Cybersecurity techniques</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1872,60 +1975,60 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CS498</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mini Project</t>
+          <t>Reinforcement learning</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Department: CSE</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0-0-0-8-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cybersecurity techniques</t>
+          <t>health care data analytics</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1961,12 +2064,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Reinforcement learning</t>
+          <t>Generative AI</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2002,12 +2105,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>health care data analytics</t>
+          <t>Hands on CMOS Analog and RF Circuit design</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2043,12 +2146,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Generative AI</t>
+          <t>User Interactions and Experience Design</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2084,12 +2187,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hands on CMOS Analog and RF Circuit design</t>
+          <t>Quantum AI+ Generative Models on Quantum Platform</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2125,12 +2228,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DE351</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>User Interactions and Experience Design</t>
+          <t>Devlops and its Applications</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2166,12 +2269,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Quantum AI+ Generative Models on Quantum Platform</t>
+          <t>Agentic AI</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2207,12 +2310,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Devlops and its Applications</t>
+          <t>Information Retrieval</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2248,12 +2351,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Agentic AI</t>
+          <t>Cloud SRE and Security</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2289,12 +2392,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Information Retrieval</t>
+          <t>AI for Cybersecurity</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2330,12 +2433,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cloud SRE and Security</t>
+          <t>Finance and Accounting</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2371,12 +2474,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CS474</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Software Defined Network</t>
+          <t>Operation Research</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2412,12 +2515,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AI for Cybersecurity</t>
+          <t>Energy Efficient Neural Network</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2453,12 +2556,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Finance and Accounting</t>
+          <t>Cybersecurity techniques</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2487,19 +2590,19 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Operation Research</t>
+          <t>Reinforcement learning</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2528,19 +2631,19 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Energy Efficient Neural Network</t>
+          <t>health care data analytics</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2569,19 +2672,19 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cybersecurity techniques</t>
+          <t>Generative AI</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2617,12 +2720,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Reinforcement learning</t>
+          <t>Hands on CMOS analog and RF circuit design</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2658,12 +2761,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CS367</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Image processing and computer vision</t>
+          <t>Usability testing</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2699,12 +2802,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>health care data analytics</t>
+          <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2740,12 +2843,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Generative AI</t>
+          <t>DevOPS and its application</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2781,12 +2884,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Hands on CMOS analog and RF circuit design</t>
+          <t>Agentic AI</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2822,12 +2925,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Usability testing</t>
+          <t>Information retrieval</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2863,12 +2966,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
+          <t>Cloud SRE and security</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2904,12 +3007,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DevOPS and its application</t>
+          <t>AI for cybersecurity</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2945,12 +3048,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Agentic AI</t>
+          <t>Finance and accounting</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2986,12 +3089,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Information retrieval</t>
+          <t>Operation research</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3027,12 +3130,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cloud SRE and security</t>
+          <t>Energy efficient neural networks</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3065,210 +3168,4703 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>CS474</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Software defined network</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>4</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004, C102, C202, L404, L405</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C004, C104, C203, L405, L406</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C004, C101, C303, L406, L407</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C004, C102, C202, L404, L405</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C004, C104, C203, L405, L406</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C004, C101, C303, L406, L407</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C004, C102, C202, L404, L405</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C004, C104, C203, L405, L406</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C004, C101, C303, L406, L407</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C004, C305</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C004, L402</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C004, L403</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C004, L404</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C004, C305</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C004, L402</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C004, L403</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>C004, L404</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C004, C305</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C004, L402</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>C004, L403</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>C004, L404</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>CS470</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>AI for cybersecurity</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>3</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" t="n">
-        <v>4</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>DS102</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Finance and accounting</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>3</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>4</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>MA452</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Operation research</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>3</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" t="n">
-        <v>4</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>EC463</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Energy efficient neural networks</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>3</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>4</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/output_timetables/sem7_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem7_CSE_timetable_baskets.xlsx
@@ -813,7 +813,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C004, C102, C302, L402, L403</t>
+          <t>C002, C004, C302, C303</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C004, C202, C303, L403, L404, L408</t>
+          <t>C003, C004, C101, C303, C304</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C001, C002, C102, C104, C205, C304, C305, L407</t>
+          <t>C002, C304, C305, L406</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C001, C003, C104, C202, C302, L405, L406</t>
+          <t>C001, C003, C101, C205, C305</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C002, C101, C205, C303, L406, L407</t>
+          <t>C003, C101, C205, C302, L402</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C001, C002, C004, C101</t>
+          <t>C004, C302, L407</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C001, C003, C004, C101</t>
+          <t>C003, C101, C303, L408</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C002, C003, C004, C101</t>
+          <t>C002, C004, C204, C304</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C001, C002, C003, C004</t>
+          <t>C001, C003, C205, C305</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C001, C004, C205, C304</t>
+          <t>C002, C004, C205</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C002, C003, C004, C302, C305</t>
+          <t>C003, C004, C302</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002, C003, C004, C101, C303</t>
+          <t>C002, C101, C303</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C102, C202, C204, L402</t>
+          <t>C001, C204, C304</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N135"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1189,15 +1189,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
@@ -1213,7 +1217,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -1253,17 +1257,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -1281,7 +1285,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -1326,7 +1330,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1349,7 +1353,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1384,22 +1388,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -1417,7 +1421,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1427,7 +1431,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -1452,22 +1456,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -1485,7 +1489,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1495,7 +1499,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -1520,20 +1524,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I7" t="b">
         <v>0</v>
       </c>
@@ -1549,7 +1557,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1559,7 +1567,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1592,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1594,12 +1602,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -1617,7 +1625,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1627,7 +1635,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -1652,22 +1660,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -1685,7 +1693,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1695,7 +1703,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -1793,12 +1801,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1821,7 +1829,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1861,17 +1869,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -1889,7 +1897,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1929,15 +1937,19 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I13" t="b">
         <v>0</v>
       </c>
@@ -1953,7 +1965,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1993,15 +2005,19 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
@@ -2017,7 +2033,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2057,17 +2073,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -2085,7 +2101,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2130,7 +2146,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2153,7 +2169,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2183,12 +2199,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2201,7 +2217,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
@@ -2212,17 +2232,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2247,12 +2267,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2280,7 +2300,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2290,7 +2310,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2315,22 +2335,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2348,17 +2368,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2383,27 +2403,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -2416,22 +2436,22 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -2456,22 +2476,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -2484,22 +2504,22 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -2524,17 +2544,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2552,22 +2572,22 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -2592,20 +2612,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I23" t="b">
         <v>0</v>
       </c>
@@ -2616,22 +2640,22 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -2651,27 +2675,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -2684,17 +2708,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2719,25 +2743,29 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I25" t="b">
         <v>0</v>
       </c>
@@ -2748,17 +2776,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2783,7 +2811,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2793,17 +2821,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -2816,17 +2844,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2851,7 +2879,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2861,17 +2889,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -2884,17 +2912,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2919,27 +2947,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -2952,17 +2980,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2987,12 +3015,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3020,22 +3048,22 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3055,12 +3083,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3088,22 +3116,22 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3123,27 +3151,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -3156,22 +3184,22 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3191,27 +3219,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -3224,22 +3252,22 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3259,27 +3287,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -3292,17 +3320,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -3327,27 +3355,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -3360,17 +3388,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3395,27 +3423,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -3428,17 +3456,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3463,29 +3491,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="b">
         <v>0</v>
       </c>
@@ -3496,17 +3520,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3531,27 +3555,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -3569,17 +3593,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3599,27 +3623,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -3632,22 +3656,22 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3667,27 +3691,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -3700,22 +3724,22 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3735,12 +3759,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3750,14 +3774,10 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="b">
         <v>0</v>
       </c>
@@ -3768,22 +3788,22 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3803,12 +3823,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3818,12 +3838,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -3836,22 +3856,22 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3871,22 +3891,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3904,17 +3924,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3939,27 +3959,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -3972,17 +3992,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -4007,12 +4027,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4027,7 +4047,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -4040,17 +4060,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -4075,12 +4095,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4095,7 +4115,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -4108,17 +4128,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -4143,27 +4163,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -4176,22 +4196,22 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4211,27 +4231,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -4249,17 +4269,17 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4279,22 +4299,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4317,17 +4337,17 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4347,29 +4367,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="b">
         <v>0</v>
       </c>
@@ -4385,17 +4401,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4410,32 +4426,32 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -4448,17 +4464,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4478,27 +4494,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4516,17 +4532,17 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4546,32 +4562,32 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -4584,17 +4600,17 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4614,12 +4630,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4639,7 +4655,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -4657,12 +4673,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4682,12 +4698,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4707,7 +4723,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -4725,12 +4741,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4750,12 +4766,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4793,12 +4809,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4818,32 +4834,32 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I56" t="b">
@@ -4861,17 +4877,17 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4886,17 +4902,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4934,12 +4950,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4954,27 +4970,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4992,22 +5008,22 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5022,30 +5038,34 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I59" t="b">
         <v>0</v>
       </c>
@@ -5056,22 +5076,22 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5086,17 +5106,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5111,7 +5131,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I60" t="b">
@@ -5124,22 +5144,22 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5154,17 +5174,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5192,17 +5212,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5222,32 +5242,32 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I62" t="b">
@@ -5260,22 +5280,22 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5290,32 +5310,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I63" t="b">
@@ -5328,22 +5348,22 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5358,32 +5378,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I64" t="b">
@@ -5396,22 +5416,22 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5426,32 +5446,32 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I65" t="b">
@@ -5469,7 +5489,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5479,7 +5499,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5494,27 +5514,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5537,7 +5557,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -5547,7 +5567,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5562,32 +5582,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I67" t="b">
@@ -5605,7 +5625,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -5615,7 +5635,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5630,30 +5650,34 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I68" t="b">
         <v>0</v>
       </c>
@@ -5669,7 +5693,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -5679,7 +5703,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5699,25 +5723,29 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I69" t="b">
         <v>0</v>
       </c>
@@ -5728,17 +5756,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5763,27 +5791,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I70" t="b">
@@ -5796,17 +5824,17 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5831,27 +5859,27 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I71" t="b">
@@ -5864,17 +5892,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5899,27 +5927,27 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I72" t="b">
@@ -5937,17 +5965,17 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5967,12 +5995,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5982,12 +6010,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I73" t="b">
@@ -6005,17 +6033,17 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6035,27 +6063,27 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I74" t="b">
@@ -6068,22 +6096,22 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6103,22 +6131,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -6136,22 +6164,22 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6171,27 +6199,27 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I76" t="b">
@@ -6204,22 +6232,22 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6239,12 +6267,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6287,7 +6315,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6307,12 +6335,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6355,7 +6383,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6375,12 +6403,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6423,7 +6451,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6443,12 +6471,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6487,7 +6515,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6507,25 +6535,29 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I81" t="b">
         <v>0</v>
       </c>
@@ -6536,22 +6568,22 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6571,27 +6603,27 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I82" t="b">
@@ -6604,22 +6636,22 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6639,12 +6671,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6654,7 +6686,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -6672,22 +6704,22 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6707,7 +6739,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -6736,7 +6768,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6746,7 +6778,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6771,12 +6803,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6804,7 +6836,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6814,12 +6846,12 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6839,12 +6871,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6872,7 +6904,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6882,12 +6914,12 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6907,7 +6939,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6925,7 +6957,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I87" t="b">
         <v>0</v>
       </c>
@@ -6936,17 +6972,17 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -6971,7 +7007,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6981,19 +7017,15 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="b">
         <v>0</v>
       </c>
@@ -7004,17 +7036,17 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -7039,7 +7071,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -7049,17 +7081,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I89" t="b">
@@ -7072,17 +7104,17 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -7107,27 +7139,27 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I90" t="b">
@@ -7140,22 +7172,22 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7180,7 +7212,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -7208,17 +7240,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -7248,22 +7280,22 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I92" t="b">
@@ -7276,17 +7308,17 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -7316,22 +7348,22 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I93" t="b">
@@ -7344,17 +7376,17 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -7379,27 +7411,27 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I94" t="b">
@@ -7412,22 +7444,22 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7452,7 +7484,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -7462,10 +7494,14 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I95" t="b">
         <v>0</v>
       </c>
@@ -7476,22 +7512,22 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7516,22 +7552,22 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I96" t="b">
@@ -7544,22 +7580,22 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7584,24 +7620,20 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="b">
         <v>0</v>
       </c>
@@ -7612,2580 +7644,20 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>7</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>7</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>7</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>7</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>7</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>7</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>7</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>7</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>7</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>7</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>7</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>7</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>7</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>7</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>7</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>7</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>7</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>7</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>7</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>7</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>7</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I118" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>7</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>7</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>7</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>7</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>7</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>7</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>7</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>7</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>7</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>7</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>7</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>7</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>7</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>7</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>7</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>7</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>7</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="N135" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
@@ -12771,7 +10243,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-20 00:15</t>
+          <t>2026-01-23 00:22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/backend/output_timetables/sem7_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem7_CSE_timetable_baskets.xlsx
@@ -4694,12 +4694,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -4770,12 +4770,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -4846,12 +4846,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -4917,17 +4917,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -4998,12 +4998,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -5145,19 +5145,15 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="b">
         <v>0</v>
       </c>
@@ -5173,7 +5169,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -5221,17 +5217,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -5249,7 +5245,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -5302,12 +5298,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -5325,7 +5321,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -5378,12 +5374,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -5401,7 +5397,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -5454,12 +5450,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -5477,7 +5473,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -5530,7 +5526,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5553,7 +5549,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -5606,12 +5602,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -5629,7 +5625,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -5682,12 +5678,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -5705,7 +5701,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -5758,12 +5754,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -5781,7 +5777,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -5834,12 +5830,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -5857,7 +5853,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5910,12 +5906,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -5933,7 +5929,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5981,17 +5977,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -6009,7 +6005,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -6057,15 +6053,19 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -6129,17 +6129,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -6210,12 +6210,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -6357,19 +6357,15 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="b">
         <v>0</v>
       </c>
@@ -6385,7 +6381,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -6433,17 +6429,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -6461,7 +6457,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -6514,12 +6510,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -6537,7 +6533,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -6590,12 +6586,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -6613,7 +6609,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -6666,12 +6662,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -6689,7 +6685,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -6742,12 +6738,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -6765,7 +6761,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6818,12 +6814,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -6841,7 +6837,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6894,12 +6890,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -6917,7 +6913,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6970,7 +6966,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -6993,7 +6989,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -7046,12 +7042,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -7069,7 +7065,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -7122,12 +7118,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -7145,7 +7141,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -7198,12 +7194,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -7221,7 +7217,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -7274,7 +7270,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -7297,7 +7293,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -7421,15 +7417,19 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -7521,7 +7521,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -7577,11 +7577,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="b">
         <v>0</v>
       </c>
@@ -7597,7 +7593,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -7655,7 +7651,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -7673,7 +7669,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7726,12 +7722,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -7749,7 +7745,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7802,12 +7798,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -7825,7 +7821,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7873,17 +7869,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -7901,7 +7897,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7949,15 +7945,19 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
@@ -7973,7 +7973,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -8021,17 +8021,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -8049,7 +8049,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -8097,15 +8097,19 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
@@ -8121,7 +8125,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -8169,12 +8173,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -8197,7 +8201,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -8255,7 +8259,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -8273,7 +8277,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -8553,7 +8557,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
@@ -8569,7 +8577,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -8617,12 +8625,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -8645,7 +8653,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -8721,7 +8729,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -8779,7 +8787,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -8797,7 +8805,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -8855,7 +8863,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -8873,7 +8881,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -9445,17 +9453,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -9473,7 +9481,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -9521,19 +9529,15 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="b">
         <v>0</v>
       </c>
@@ -9549,7 +9553,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -9597,12 +9601,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -9625,7 +9629,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -9701,7 +9705,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -9757,7 +9761,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
@@ -9773,7 +9781,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -9821,12 +9829,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -9849,7 +9857,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -9925,7 +9933,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -9983,7 +9991,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -10001,7 +10009,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -10059,7 +10067,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -10077,7 +10085,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -10949,12 +10957,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -10977,7 +10985,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -11053,7 +11061,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -11129,7 +11137,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -11281,7 +11289,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -11329,17 +11337,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -11357,7 +11365,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -11405,19 +11413,15 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="b">
         <v>0</v>
       </c>
@@ -11433,7 +11437,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -11481,12 +11485,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -11509,7 +11513,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -11585,7 +11589,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -11633,17 +11637,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J94" t="b">
@@ -11661,7 +11665,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -11709,19 +11713,15 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="b">
         <v>0</v>
       </c>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -11785,12 +11785,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -11813,7 +11813,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -11871,7 +11871,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J97" t="b">
@@ -11889,7 +11889,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -11955,7 +11955,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, L406</t>
+          <t>C004, C101</t>
         </is>
       </c>
     </row>
@@ -11972,7 +11972,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, L407</t>
+          <t>C001, C102</t>
         </is>
       </c>
     </row>
@@ -11989,7 +11989,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, L408</t>
+          <t>C002, C104</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12006,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004, L407, L408</t>
+          <t>C004, C102</t>
         </is>
       </c>
     </row>
@@ -12023,7 +12023,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001, L404, L408</t>
+          <t>C001, C104</t>
         </is>
       </c>
     </row>
@@ -12040,7 +12040,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002, L405</t>
+          <t>C002, C202</t>
         </is>
       </c>
     </row>
@@ -12057,7 +12057,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C101, L406</t>
+          <t>C101, C203</t>
         </is>
       </c>
     </row>
@@ -12074,7 +12074,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C004, C102, L408</t>
+          <t>C002, C004</t>
         </is>
       </c>
     </row>
@@ -12091,7 +12091,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C001, C002, C104, L404</t>
+          <t>C101, C102</t>
         </is>
       </c>
     </row>
@@ -12108,7 +12108,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C101, C202, C302</t>
+          <t>C104, C202</t>
         </is>
       </c>
     </row>
@@ -12125,7 +12125,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C002, C102, C203, L406</t>
+          <t>C001, C203</t>
         </is>
       </c>
     </row>
@@ -12142,7 +12142,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C004, C101, C104, C204</t>
+          <t>C204, C205</t>
         </is>
       </c>
     </row>
@@ -12159,7 +12159,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C002, C004, C102, L405</t>
+          <t>C004, C102</t>
         </is>
       </c>
     </row>
@@ -12176,7 +12176,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C001, C101, C104, L406</t>
+          <t>C001, C104</t>
         </is>
       </c>
     </row>
@@ -12193,7 +12193,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002, C004, C102, C202</t>
+          <t>C002, C202</t>
         </is>
       </c>
     </row>
@@ -12210,7 +12210,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C101, C104, C203</t>
+          <t>C101, C203</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem7_CSE_timetable_baskets.xlsx
@@ -4917,17 +4917,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -5145,15 +5145,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
@@ -5169,7 +5173,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -5227,7 +5231,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -5245,7 +5249,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -5321,7 +5325,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -5397,7 +5401,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -5473,7 +5477,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -5531,7 +5535,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -5549,7 +5553,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -5853,7 +5857,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5929,7 +5933,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -6005,7 +6009,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -6063,7 +6067,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -6081,7 +6085,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -6129,17 +6133,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -6157,7 +6161,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -6233,7 +6237,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -6291,7 +6295,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -6309,7 +6313,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -6357,15 +6361,19 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
@@ -6381,7 +6389,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -6439,7 +6447,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -6457,7 +6465,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -6761,7 +6769,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6837,7 +6845,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6913,7 +6921,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6971,7 +6979,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -6989,7 +6997,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -7065,7 +7073,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -7141,7 +7149,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -7217,7 +7225,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -7275,7 +7283,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -7293,7 +7301,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -7341,17 +7349,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -7369,7 +7377,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -7445,7 +7453,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -7503,7 +7511,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -7521,7 +7529,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -7569,15 +7577,19 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
@@ -7593,7 +7605,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -7651,7 +7663,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -7669,7 +7681,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7745,7 +7757,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7821,7 +7833,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7897,7 +7909,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7955,7 +7967,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -7973,7 +7985,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -8049,7 +8061,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -8125,7 +8137,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -8201,7 +8213,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -8259,7 +8271,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -8277,7 +8289,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -8325,17 +8337,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -8353,7 +8365,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -8401,15 +8413,19 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
@@ -8425,7 +8441,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -8473,12 +8489,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -8501,7 +8517,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -8549,12 +8565,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -8577,7 +8593,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -8711,7 +8727,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -8729,7 +8745,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -8787,7 +8803,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -8805,7 +8821,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -8863,7 +8879,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -8881,7 +8897,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -8929,17 +8945,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -8957,7 +8973,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -9005,15 +9021,19 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
@@ -9029,7 +9049,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -9077,12 +9097,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -9105,7 +9125,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -9181,7 +9201,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -9229,17 +9249,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -9257,7 +9277,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -9305,15 +9325,19 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
@@ -9329,7 +9353,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -9377,12 +9401,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -9405,7 +9429,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -9453,17 +9477,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -9481,7 +9505,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -9529,15 +9553,19 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J66" t="b">
         <v>0</v>
       </c>
@@ -9553,7 +9581,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -9601,12 +9629,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -9629,7 +9657,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -9705,7 +9733,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -9753,12 +9781,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -9781,7 +9809,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -9915,7 +9943,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -9933,7 +9961,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -9991,7 +10019,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -10009,7 +10037,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -10067,7 +10095,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -10085,7 +10113,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -10133,17 +10161,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -10161,7 +10189,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -10209,15 +10237,19 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
@@ -10233,7 +10265,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -10281,12 +10313,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -10309,7 +10341,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -10357,17 +10389,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -10385,7 +10417,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -10433,15 +10465,19 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J78" t="b">
         <v>0</v>
       </c>
@@ -10457,7 +10493,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -10505,12 +10541,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -10533,7 +10569,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -10609,7 +10645,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -10657,17 +10693,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -10685,7 +10721,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -10733,15 +10769,19 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J82" t="b">
         <v>0</v>
       </c>
@@ -10757,7 +10797,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -10805,12 +10845,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -10833,7 +10873,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -10909,7 +10949,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -10957,12 +10997,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -10985,7 +11025,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -11119,7 +11159,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -11137,7 +11177,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -11195,7 +11235,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J88" t="b">
@@ -11213,7 +11253,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -11271,7 +11311,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -11289,7 +11329,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -11337,17 +11377,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -11365,7 +11405,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -11413,15 +11453,19 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J91" t="b">
         <v>0</v>
       </c>
@@ -11437,7 +11481,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -11485,12 +11529,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -11513,7 +11557,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -11589,7 +11633,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -11637,17 +11681,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J94" t="b">
@@ -11665,7 +11709,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -11713,15 +11757,19 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
@@ -11737,7 +11785,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -11785,12 +11833,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -11813,7 +11861,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -11889,7 +11937,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -11955,7 +12003,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -11972,7 +12020,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, C102</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -11989,7 +12037,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C104</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12054,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004, C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -12023,7 +12071,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -12040,7 +12088,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002, C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -12057,7 +12105,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C101, C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -12074,7 +12122,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C002, C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -12091,7 +12139,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C101, C102</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -12108,7 +12156,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C104, C202</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -12125,7 +12173,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C001, C203</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -12142,7 +12190,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C204, C205</t>
+          <t>C101, C202</t>
         </is>
       </c>
     </row>
@@ -12159,7 +12207,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004, C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -12176,7 +12224,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C001, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -12193,7 +12241,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002, C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -12210,7 +12258,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C101, C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
